--- a/public/DataSPJPd/template-spj perjalanan dinas.xlsx
+++ b/public/DataSPJPd/template-spj perjalanan dinas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4887B-73A9-4057-9D3E-52D5CA03F032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC00A793-29D7-4C14-A051-1A34AFBF7F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Nama Bank</t>
   </si>
   <si>
-    <t>sfewgfwg</t>
-  </si>
-  <si>
     <t>bali</t>
   </si>
   <si>
@@ -135,10 +132,16 @@
     <t>bni</t>
   </si>
   <si>
-    <t>vadv</t>
+    <t>smg</t>
   </si>
   <si>
-    <t>smg</t>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>yyy</t>
   </si>
 </sst>
 </file>
@@ -624,9 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y980"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -767,46 +770,44 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
-        <v>1010</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="J3" s="27">
-        <v>2910</v>
+        <v>40</v>
       </c>
       <c r="K3" s="27">
-        <f>SUM(G3:J3)</f>
-        <v>5220</v>
+        <v>50</v>
       </c>
       <c r="L3" s="27">
-        <f>4000</f>
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="M3" s="27">
         <f>K3-L3</f>
-        <v>1220</v>
+        <v>40</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="26">
         <v>108372830</v>
@@ -827,46 +828,44 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7">
         <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>1010</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="J4" s="27">
-        <v>2910</v>
+        <v>40</v>
       </c>
       <c r="K4" s="27">
-        <f>SUM(G4:J4)</f>
-        <v>5220</v>
+        <v>50</v>
       </c>
       <c r="L4" s="27">
-        <f>4000</f>
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="M4" s="27">
         <f>K4-L4</f>
-        <v>1220</v>
+        <v>40</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="26">
         <v>108372830</v>
@@ -883,21 +882,52 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="27">
+        <v>40</v>
+      </c>
+      <c r="K5" s="27">
+        <v>50</v>
+      </c>
+      <c r="L5" s="27">
+        <v>10</v>
+      </c>
+      <c r="M5" s="27">
+        <f>K5-L5</f>
+        <v>40</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="26">
+        <v>108372830</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>

--- a/public/DataSPJPd/template-spj perjalanan dinas.xlsx
+++ b/public/DataSPJPd/template-spj perjalanan dinas.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC00A793-29D7-4C14-A051-1A34AFBF7F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6836B69-1498-4D5E-8E2E-87B135C37FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tahap 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="z1Sm6htD8CKt+PhvX/KXWppJJfxKgOlrpbtjHRQsLKo="/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -123,25 +117,19 @@
     <t>Nama Bank</t>
   </si>
   <si>
-    <t>bali</t>
+    <t>Indah</t>
   </si>
   <si>
-    <t>jkt</t>
+    <t>Jakarta</t>
   </si>
   <si>
-    <t>bni</t>
+    <t>Bali</t>
   </si>
   <si>
-    <t>smg</t>
+    <t>BRI</t>
   </si>
   <si>
-    <t>rrr</t>
-  </si>
-  <si>
-    <t>ttt</t>
-  </si>
-  <si>
-    <t>yyy</t>
+    <t>Mafi</t>
   </si>
 </sst>
 </file>
@@ -627,31 +615,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y980"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
-    <col min="8" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="9.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="24" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="24" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -708,7 +696,7 @@
       <c r="X1" s="23"/>
       <c r="Y1" s="23"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -765,52 +753,53 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5">
-        <v>10</v>
+        <v>300000</v>
       </c>
       <c r="H3" s="5">
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="I3" s="5">
-        <v>30</v>
+        <v>154000</v>
       </c>
       <c r="J3" s="27">
-        <v>40</v>
+        <v>132500</v>
       </c>
       <c r="K3" s="27">
-        <v>50</v>
+        <f>SUM(G3:J3)</f>
+        <v>1586500</v>
       </c>
       <c r="L3" s="27">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="M3" s="27">
         <f>K3-L3</f>
-        <v>40</v>
+        <v>1566500</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="26">
-        <v>108372830</v>
+        <v>1112234432</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -823,52 +812,53 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
-        <v>10</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="5">
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="I4" s="5">
-        <v>30</v>
+        <v>154000</v>
       </c>
       <c r="J4" s="27">
-        <v>40</v>
+        <v>132500</v>
       </c>
       <c r="K4" s="27">
-        <v>50</v>
+        <f>SUM(G4:J4)</f>
+        <v>1586500</v>
       </c>
       <c r="L4" s="27">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="M4" s="27">
         <f>K4-L4</f>
-        <v>40</v>
+        <v>1561500</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="26">
-        <v>108372830</v>
+        <v>1112234433</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -881,53 +871,22 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5">
-        <v>30</v>
-      </c>
-      <c r="J5" s="27">
-        <v>40</v>
-      </c>
-      <c r="K5" s="27">
-        <v>50</v>
-      </c>
-      <c r="L5" s="27">
-        <v>10</v>
-      </c>
-      <c r="M5" s="27">
-        <f>K5-L5</f>
-        <v>40</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="26">
-        <v>108372830</v>
-      </c>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -939,7 +898,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="11"/>
       <c r="C6" s="13"/>
@@ -966,7 +925,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="12"/>
@@ -993,7 +952,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
@@ -1020,7 +979,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="12"/>
@@ -1047,7 +1006,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
@@ -1074,7 +1033,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1101,7 +1060,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1128,7 +1087,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="12"/>
@@ -1155,7 +1114,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="12"/>
@@ -1182,7 +1141,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1209,7 +1168,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="7"/>
@@ -1236,7 +1195,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1263,7 +1222,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1290,7 +1249,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1317,7 +1276,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1344,7 +1303,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1371,7 +1330,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1398,7 +1357,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1425,7 +1384,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1452,7 +1411,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1479,7 +1438,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1506,7 +1465,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1533,7 +1492,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1560,7 +1519,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1587,7 +1546,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1614,7 +1573,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1641,7 +1600,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1668,7 +1627,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1695,7 +1654,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1722,7 +1681,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1749,7 +1708,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1776,7 +1735,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1803,7 +1762,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1830,7 +1789,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1857,7 +1816,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1884,7 +1843,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1911,7 +1870,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1938,7 +1897,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1965,7 +1924,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1992,7 +1951,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2019,7 +1978,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2046,7 +2005,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2073,7 +2032,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2100,7 +2059,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2127,7 +2086,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2154,7 +2113,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2181,7 +2140,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2208,7 +2167,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2235,7 +2194,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2262,7 +2221,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2289,7 +2248,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2316,7 +2275,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2343,7 +2302,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2370,7 +2329,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2397,7 +2356,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2424,7 +2383,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2451,7 +2410,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2478,7 +2437,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2505,7 +2464,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2532,7 +2491,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2559,7 +2518,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2586,7 +2545,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2613,7 +2572,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2640,7 +2599,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2667,7 +2626,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2694,7 +2653,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2721,7 +2680,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2748,7 +2707,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2775,7 +2734,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2802,7 +2761,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2829,7 +2788,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2856,7 +2815,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2883,7 +2842,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2910,7 +2869,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2937,7 +2896,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2964,7 +2923,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2991,7 +2950,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3018,7 +2977,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3045,7 +3004,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3072,7 +3031,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3099,7 +3058,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3126,7 +3085,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3153,7 +3112,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3180,7 +3139,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3207,7 +3166,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3234,7 +3193,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3261,7 +3220,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3288,7 +3247,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3315,7 +3274,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3342,7 +3301,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3369,7 +3328,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3396,7 +3355,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3423,7 +3382,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3450,7 +3409,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3477,7 +3436,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3504,7 +3463,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3531,7 +3490,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3558,7 +3517,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3585,7 +3544,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3612,7 +3571,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3639,7 +3598,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3666,7 +3625,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3693,7 +3652,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3720,7 +3679,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3747,7 +3706,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3774,7 +3733,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3801,7 +3760,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3828,7 +3787,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3855,7 +3814,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3882,7 +3841,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3909,7 +3868,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3936,7 +3895,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3963,7 +3922,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3990,7 +3949,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4017,7 +3976,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4044,7 +4003,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4071,7 +4030,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4098,7 +4057,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4125,7 +4084,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4152,7 +4111,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4179,7 +4138,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4206,7 +4165,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4233,7 +4192,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4260,7 +4219,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4287,7 +4246,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4314,7 +4273,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4341,7 +4300,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4368,7 +4327,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4395,7 +4354,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4422,7 +4381,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4449,7 +4408,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4476,7 +4435,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4503,7 +4462,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4530,7 +4489,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4557,7 +4516,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4584,7 +4543,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4611,7 +4570,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4638,7 +4597,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4665,7 +4624,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4692,7 +4651,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4719,7 +4678,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4746,7 +4705,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4773,7 +4732,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4800,7 +4759,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4827,7 +4786,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4854,7 +4813,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4881,7 +4840,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4908,7 +4867,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4935,7 +4894,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4962,7 +4921,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4989,7 +4948,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5016,7 +4975,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5043,7 +5002,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5070,7 +5029,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5097,7 +5056,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5124,7 +5083,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5151,7 +5110,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5178,7 +5137,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5205,7 +5164,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5232,7 +5191,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5259,7 +5218,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5286,7 +5245,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5313,7 +5272,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5340,7 +5299,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5367,7 +5326,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5394,7 +5353,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5421,7 +5380,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5448,7 +5407,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5475,7 +5434,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5502,7 +5461,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5529,7 +5488,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5556,7 +5515,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5583,7 +5542,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5610,7 +5569,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5637,7 +5596,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5664,7 +5623,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5691,7 +5650,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5718,7 +5677,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5745,7 +5704,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5772,7 +5731,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5799,7 +5758,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5826,7 +5785,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5853,7 +5812,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5880,7 +5839,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5907,7 +5866,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5934,7 +5893,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5961,7 +5920,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5988,7 +5947,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6015,7 +5974,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6042,7 +6001,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6069,7 +6028,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6096,7 +6055,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6123,7 +6082,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6150,7 +6109,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6177,7 +6136,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6204,7 +6163,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6231,7 +6190,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6258,7 +6217,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6285,7 +6244,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6312,7 +6271,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6339,7 +6298,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6366,7 +6325,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6393,7 +6352,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6420,7 +6379,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6447,7 +6406,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6474,7 +6433,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6501,7 +6460,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6528,7 +6487,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6555,7 +6514,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6582,7 +6541,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6609,7 +6568,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6636,7 +6595,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6663,7 +6622,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6690,7 +6649,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6717,7 +6676,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6744,7 +6703,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6771,7 +6730,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6798,7 +6757,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6825,7 +6784,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6852,7 +6811,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6879,7 +6838,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6906,7 +6865,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6933,7 +6892,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6960,7 +6919,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6987,7 +6946,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7014,7 +6973,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7041,7 +7000,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7068,7 +7027,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7095,7 +7054,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7122,7 +7081,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7149,7 +7108,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7176,7 +7135,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7203,7 +7162,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7230,7 +7189,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7257,7 +7216,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7284,7 +7243,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7311,7 +7270,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7338,7 +7297,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7365,7 +7324,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7392,7 +7351,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7419,7 +7378,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7446,7 +7405,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7473,7 +7432,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7500,7 +7459,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7527,7 +7486,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7554,7 +7513,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7581,7 +7540,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7608,7 +7567,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7635,7 +7594,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7662,7 +7621,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7689,7 +7648,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7716,7 +7675,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7743,7 +7702,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7770,7 +7729,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7797,7 +7756,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7824,7 +7783,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7851,7 +7810,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7878,7 +7837,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7905,7 +7864,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7932,7 +7891,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7959,7 +7918,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7986,7 +7945,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8013,7 +7972,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8040,7 +7999,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8067,7 +8026,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8094,7 +8053,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8121,7 +8080,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8148,7 +8107,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8175,7 +8134,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8202,7 +8161,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8229,7 +8188,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8256,7 +8215,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8283,7 +8242,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8310,7 +8269,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8337,7 +8296,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8364,7 +8323,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8391,7 +8350,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8418,7 +8377,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8445,7 +8404,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8472,7 +8431,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8499,7 +8458,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8526,7 +8485,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8553,7 +8512,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8580,7 +8539,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8607,7 +8566,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8634,7 +8593,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8661,7 +8620,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8688,7 +8647,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8715,7 +8674,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8742,7 +8701,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8769,7 +8728,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8796,7 +8755,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8823,7 +8782,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8850,7 +8809,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8877,7 +8836,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8904,7 +8863,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8931,7 +8890,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8958,7 +8917,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8985,7 +8944,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9012,7 +8971,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9039,7 +8998,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9066,7 +9025,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9093,7 +9052,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9120,7 +9079,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9147,7 +9106,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9174,7 +9133,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9201,7 +9160,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9228,7 +9187,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9255,7 +9214,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9282,7 +9241,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9309,7 +9268,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9336,7 +9295,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9363,7 +9322,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9390,7 +9349,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9417,7 +9376,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9444,7 +9403,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9471,7 +9430,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9498,7 +9457,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9525,7 +9484,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9552,7 +9511,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9579,7 +9538,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9606,7 +9565,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9633,7 +9592,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9660,7 +9619,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9687,7 +9646,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9714,7 +9673,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9741,7 +9700,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9768,7 +9727,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9795,7 +9754,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9822,7 +9781,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9849,7 +9808,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9876,7 +9835,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9903,7 +9862,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9930,7 +9889,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9957,7 +9916,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9984,7 +9943,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10011,7 +9970,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10038,7 +9997,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10065,7 +10024,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10092,7 +10051,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10119,7 +10078,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10146,7 +10105,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10173,7 +10132,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10200,7 +10159,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10227,7 +10186,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10254,7 +10213,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10281,7 +10240,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10308,7 +10267,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10335,7 +10294,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10362,7 +10321,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10389,7 +10348,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10416,7 +10375,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10443,7 +10402,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10470,7 +10429,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10497,7 +10456,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10524,7 +10483,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10551,7 +10510,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10578,7 +10537,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10605,7 +10564,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10632,7 +10591,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10659,7 +10618,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10686,7 +10645,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10713,7 +10672,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10740,7 +10699,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10767,7 +10726,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10794,7 +10753,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10821,7 +10780,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10848,7 +10807,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10875,7 +10834,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10902,7 +10861,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10929,7 +10888,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10956,7 +10915,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10983,7 +10942,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11010,7 +10969,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11037,7 +10996,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11064,7 +11023,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11091,7 +11050,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11118,7 +11077,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11145,7 +11104,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11172,7 +11131,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11199,7 +11158,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11226,7 +11185,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11253,7 +11212,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11280,7 +11239,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11307,7 +11266,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11334,7 +11293,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11361,7 +11320,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11388,7 +11347,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11415,7 +11374,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11442,7 +11401,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11469,7 +11428,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11496,7 +11455,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11523,7 +11482,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11550,7 +11509,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11577,7 +11536,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11604,7 +11563,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11631,7 +11590,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11658,7 +11617,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11685,7 +11644,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11712,7 +11671,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11739,7 +11698,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11766,7 +11725,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11793,7 +11752,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11820,7 +11779,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11847,7 +11806,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11874,7 +11833,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11901,7 +11860,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11928,7 +11887,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11955,7 +11914,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11982,7 +11941,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12009,7 +11968,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12036,7 +11995,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12063,7 +12022,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12090,7 +12049,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12117,7 +12076,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12144,7 +12103,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12171,7 +12130,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12198,7 +12157,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12225,7 +12184,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12252,7 +12211,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12279,7 +12238,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12306,7 +12265,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12333,7 +12292,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12360,7 +12319,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12387,7 +12346,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12414,7 +12373,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12441,7 +12400,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12468,7 +12427,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12495,7 +12454,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12522,7 +12481,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12549,7 +12508,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12576,7 +12535,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12603,7 +12562,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12630,7 +12589,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12657,7 +12616,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12684,7 +12643,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12711,7 +12670,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12738,7 +12697,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12765,7 +12724,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12792,7 +12751,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12819,7 +12778,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12846,7 +12805,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12873,7 +12832,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12900,7 +12859,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12927,7 +12886,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12954,7 +12913,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12981,7 +12940,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13008,7 +12967,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13035,7 +12994,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13062,7 +13021,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13089,7 +13048,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13116,7 +13075,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13143,7 +13102,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13170,7 +13129,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13197,7 +13156,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13224,7 +13183,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13251,7 +13210,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13278,7 +13237,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13305,7 +13264,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13332,7 +13291,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13359,7 +13318,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13386,7 +13345,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13413,7 +13372,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13440,7 +13399,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13467,7 +13426,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13494,7 +13453,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13521,7 +13480,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13548,7 +13507,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13575,7 +13534,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13602,7 +13561,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13629,7 +13588,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13656,7 +13615,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13683,7 +13642,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13710,7 +13669,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13737,7 +13696,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13764,7 +13723,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13791,7 +13750,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13818,7 +13777,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13845,7 +13804,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13872,7 +13831,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13899,7 +13858,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13926,7 +13885,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13953,7 +13912,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13980,7 +13939,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14007,7 +13966,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14034,7 +13993,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14061,7 +14020,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14088,7 +14047,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14115,7 +14074,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14142,7 +14101,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14169,7 +14128,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14196,7 +14155,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14223,7 +14182,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14250,7 +14209,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14277,7 +14236,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14304,7 +14263,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14331,7 +14290,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14358,7 +14317,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14385,7 +14344,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14412,7 +14371,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14439,7 +14398,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14466,7 +14425,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14493,7 +14452,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14520,7 +14479,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14547,7 +14506,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14574,7 +14533,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14601,7 +14560,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14628,7 +14587,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14655,7 +14614,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14682,7 +14641,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14709,7 +14668,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14736,7 +14695,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14763,7 +14722,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14790,7 +14749,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14817,7 +14776,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14844,7 +14803,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14871,7 +14830,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14898,7 +14857,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14925,7 +14884,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14952,7 +14911,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14979,7 +14938,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15006,7 +14965,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15033,7 +14992,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15060,7 +15019,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15087,7 +15046,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15114,7 +15073,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15141,7 +15100,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15168,7 +15127,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15195,7 +15154,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15222,7 +15181,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15249,7 +15208,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15276,7 +15235,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15303,7 +15262,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15330,7 +15289,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15357,7 +15316,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15384,7 +15343,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15411,7 +15370,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15438,7 +15397,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15465,7 +15424,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15492,7 +15451,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15519,7 +15478,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15546,7 +15505,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15573,7 +15532,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15600,7 +15559,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15627,7 +15586,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15654,7 +15613,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15681,7 +15640,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15708,7 +15667,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15735,7 +15694,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15762,7 +15721,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15789,7 +15748,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15816,7 +15775,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15843,7 +15802,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15870,7 +15829,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15897,7 +15856,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15924,7 +15883,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15951,7 +15910,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15978,7 +15937,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16005,7 +15964,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16032,7 +15991,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16059,7 +16018,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16086,7 +16045,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16113,7 +16072,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16140,7 +16099,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16167,7 +16126,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16194,7 +16153,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16221,7 +16180,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16248,7 +16207,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16275,7 +16234,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16302,7 +16261,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16329,7 +16288,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16356,7 +16315,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16383,7 +16342,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16410,7 +16369,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16437,7 +16396,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16464,7 +16423,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16491,7 +16450,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16518,7 +16477,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16545,7 +16504,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16572,7 +16531,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16599,7 +16558,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16626,7 +16585,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16653,7 +16612,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16680,7 +16639,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16707,7 +16666,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16734,7 +16693,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16761,7 +16720,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16788,7 +16747,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16815,7 +16774,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16842,7 +16801,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16869,7 +16828,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16896,7 +16855,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16923,7 +16882,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16950,7 +16909,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16977,7 +16936,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17004,7 +16963,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17031,7 +16990,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17058,7 +17017,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17085,7 +17044,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17112,7 +17071,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17139,7 +17098,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17166,7 +17125,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17193,7 +17152,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17220,7 +17179,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17247,7 +17206,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17274,7 +17233,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17301,7 +17260,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17328,7 +17287,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17355,7 +17314,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17382,7 +17341,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17409,7 +17368,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17436,7 +17395,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17463,7 +17422,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17490,7 +17449,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17517,7 +17476,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17544,7 +17503,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17571,7 +17530,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17598,7 +17557,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17625,7 +17584,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17652,7 +17611,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17679,7 +17638,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17706,7 +17665,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17733,7 +17692,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17760,7 +17719,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17787,7 +17746,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17814,7 +17773,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17841,7 +17800,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17868,7 +17827,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17895,7 +17854,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17922,7 +17881,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17949,7 +17908,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17976,7 +17935,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18003,7 +17962,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18030,7 +17989,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18057,7 +18016,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18084,7 +18043,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18111,7 +18070,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18138,7 +18097,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18165,7 +18124,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18192,7 +18151,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18219,7 +18178,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18246,7 +18205,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18273,7 +18232,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18300,7 +18259,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18327,7 +18286,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18354,7 +18313,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18381,7 +18340,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18408,7 +18367,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18435,7 +18394,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18462,7 +18421,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18489,7 +18448,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18516,7 +18475,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18543,7 +18502,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18570,7 +18529,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18597,7 +18556,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18624,7 +18583,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18651,7 +18610,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18678,7 +18637,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -18705,7 +18664,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -18732,7 +18691,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -18759,7 +18718,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18786,7 +18745,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18813,7 +18772,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18840,7 +18799,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -18867,7 +18826,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -18894,7 +18853,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -18921,7 +18880,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -18948,7 +18907,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -18975,7 +18934,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19002,7 +18961,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19029,7 +18988,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19056,7 +19015,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19083,7 +19042,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19110,7 +19069,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19137,7 +19096,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19164,7 +19123,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19191,7 +19150,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19218,7 +19177,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19245,7 +19204,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19272,7 +19231,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19299,7 +19258,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19326,7 +19285,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19353,7 +19312,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19380,7 +19339,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19407,7 +19366,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19434,7 +19393,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19461,7 +19420,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19488,7 +19447,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19515,7 +19474,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19542,7 +19501,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19569,7 +19528,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19596,7 +19555,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19623,7 +19582,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19650,7 +19609,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -19677,7 +19636,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -19704,7 +19663,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -19731,7 +19690,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -19758,7 +19717,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -19785,7 +19744,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -19812,7 +19771,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19839,7 +19798,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -19866,7 +19825,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -19893,7 +19852,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -19920,7 +19879,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -19947,7 +19906,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -19974,7 +19933,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20001,7 +19960,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20028,7 +19987,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20055,7 +20014,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20082,7 +20041,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20109,7 +20068,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20136,7 +20095,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20163,7 +20122,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20190,7 +20149,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20217,7 +20176,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20244,7 +20203,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20271,7 +20230,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20298,7 +20257,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20325,7 +20284,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20352,7 +20311,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20379,7 +20338,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20406,7 +20365,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20433,7 +20392,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20460,7 +20419,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20487,7 +20446,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20514,7 +20473,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20541,7 +20500,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20568,7 +20527,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -20595,7 +20554,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -20622,7 +20581,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -20649,7 +20608,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -20676,7 +20635,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -20703,7 +20662,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -20730,7 +20689,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -20757,7 +20716,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -20784,7 +20743,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -20811,7 +20770,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -20838,7 +20797,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -20865,7 +20824,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -20892,7 +20851,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -20919,7 +20878,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -20946,7 +20905,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -20973,7 +20932,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21000,7 +20959,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21027,7 +20986,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21054,7 +21013,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21081,7 +21040,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21108,7 +21067,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21135,7 +21094,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21162,7 +21121,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21189,7 +21148,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21216,7 +21175,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21243,7 +21202,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21270,7 +21229,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21297,7 +21256,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21324,7 +21283,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21351,7 +21310,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21378,7 +21337,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21405,7 +21364,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21432,7 +21391,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21459,7 +21418,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21486,7 +21445,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21513,7 +21472,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -21540,7 +21499,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -21567,7 +21526,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -21594,7 +21553,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -21621,7 +21580,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -21648,7 +21607,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -21675,7 +21634,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -21702,7 +21661,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -21729,7 +21688,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -21756,7 +21715,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -21783,7 +21742,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -21810,7 +21769,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -21837,7 +21796,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -21864,7 +21823,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -21891,7 +21850,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -21918,7 +21877,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -21945,7 +21904,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -21972,7 +21931,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -21999,7 +21958,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22026,7 +21985,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22053,7 +22012,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22080,7 +22039,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22107,7 +22066,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22134,7 +22093,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22161,7 +22120,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22188,7 +22147,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22215,7 +22174,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22242,7 +22201,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22269,7 +22228,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22296,7 +22255,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22323,7 +22282,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22350,7 +22309,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22377,7 +22336,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22404,7 +22363,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22431,7 +22390,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22458,7 +22417,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22485,7 +22444,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -22512,7 +22471,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -22539,7 +22498,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -22566,7 +22525,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -22593,7 +22552,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -22620,7 +22579,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -22647,7 +22606,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -22674,7 +22633,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -22701,7 +22660,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -22728,7 +22687,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -22755,7 +22714,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -22782,7 +22741,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -22809,7 +22768,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -22836,7 +22795,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -22863,7 +22822,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -22890,7 +22849,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -22917,7 +22876,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -22944,7 +22903,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -22971,7 +22930,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -22998,7 +22957,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23025,7 +22984,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23052,7 +23011,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23079,7 +23038,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23106,7 +23065,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23133,7 +23092,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23160,7 +23119,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23187,7 +23146,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23214,7 +23173,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23241,7 +23200,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23268,7 +23227,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23295,7 +23254,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23322,7 +23281,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23349,7 +23308,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23376,7 +23335,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23403,7 +23362,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23430,7 +23389,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23457,7 +23416,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -23484,7 +23443,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -23511,7 +23470,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -23538,7 +23497,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -23565,7 +23524,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -23592,7 +23551,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -23619,7 +23578,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -23646,7 +23605,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -23673,7 +23632,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -23700,7 +23659,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -23727,7 +23686,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -23754,7 +23713,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -23781,7 +23740,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -23808,7 +23767,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -23835,7 +23794,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -23862,7 +23821,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -23889,7 +23848,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -23916,7 +23875,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -23943,7 +23902,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -23970,7 +23929,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -23997,7 +23956,7 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
     </row>
-    <row r="860" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24024,7 +23983,7 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
     </row>
-    <row r="861" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24051,7 +24010,7 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
     </row>
-    <row r="862" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24078,7 +24037,7 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
     </row>
-    <row r="863" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24105,7 +24064,7 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
     </row>
-    <row r="864" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24132,7 +24091,7 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
     </row>
-    <row r="865" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24159,7 +24118,7 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
     </row>
-    <row r="866" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24186,7 +24145,7 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
     </row>
-    <row r="867" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24213,7 +24172,7 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
     </row>
-    <row r="868" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24240,7 +24199,7 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
     </row>
-    <row r="869" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24267,7 +24226,7 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
     </row>
-    <row r="870" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24294,7 +24253,7 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
     </row>
-    <row r="871" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24321,7 +24280,7 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
     </row>
-    <row r="872" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24348,7 +24307,7 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
     </row>
-    <row r="873" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24375,7 +24334,7 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
     </row>
-    <row r="874" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24402,7 +24361,7 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
     </row>
-    <row r="875" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -24429,7 +24388,7 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
     </row>
-    <row r="876" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -24456,7 +24415,7 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
     </row>
-    <row r="877" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -24483,7 +24442,7 @@
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
     </row>
-    <row r="878" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -24510,7 +24469,7 @@
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
     </row>
-    <row r="879" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -24537,7 +24496,7 @@
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
     </row>
-    <row r="880" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -24564,7 +24523,7 @@
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
     </row>
-    <row r="881" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -24591,7 +24550,7 @@
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
     </row>
-    <row r="882" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -24618,7 +24577,7 @@
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
     </row>
-    <row r="883" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -24645,7 +24604,7 @@
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
     </row>
-    <row r="884" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -24672,7 +24631,7 @@
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
     </row>
-    <row r="885" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -24699,7 +24658,7 @@
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
     </row>
-    <row r="886" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -24726,7 +24685,7 @@
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
     </row>
-    <row r="887" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -24753,7 +24712,7 @@
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
     </row>
-    <row r="888" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -24780,7 +24739,7 @@
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
     </row>
-    <row r="889" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -24807,7 +24766,7 @@
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
     </row>
-    <row r="890" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -24834,7 +24793,7 @@
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
     </row>
-    <row r="891" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -24861,7 +24820,7 @@
       <c r="X891" s="1"/>
       <c r="Y891" s="1"/>
     </row>
-    <row r="892" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -24888,7 +24847,7 @@
       <c r="X892" s="1"/>
       <c r="Y892" s="1"/>
     </row>
-    <row r="893" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -24915,7 +24874,7 @@
       <c r="X893" s="1"/>
       <c r="Y893" s="1"/>
     </row>
-    <row r="894" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -24942,7 +24901,7 @@
       <c r="X894" s="1"/>
       <c r="Y894" s="1"/>
     </row>
-    <row r="895" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -24969,7 +24928,7 @@
       <c r="X895" s="1"/>
       <c r="Y895" s="1"/>
     </row>
-    <row r="896" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -24996,7 +24955,7 @@
       <c r="X896" s="1"/>
       <c r="Y896" s="1"/>
     </row>
-    <row r="897" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -25023,7 +24982,7 @@
       <c r="X897" s="1"/>
       <c r="Y897" s="1"/>
     </row>
-    <row r="898" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -25050,7 +25009,7 @@
       <c r="X898" s="1"/>
       <c r="Y898" s="1"/>
     </row>
-    <row r="899" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -25077,7 +25036,7 @@
       <c r="X899" s="1"/>
       <c r="Y899" s="1"/>
     </row>
-    <row r="900" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -25104,7 +25063,7 @@
       <c r="X900" s="1"/>
       <c r="Y900" s="1"/>
     </row>
-    <row r="901" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -25131,7 +25090,7 @@
       <c r="X901" s="1"/>
       <c r="Y901" s="1"/>
     </row>
-    <row r="902" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -25158,7 +25117,7 @@
       <c r="X902" s="1"/>
       <c r="Y902" s="1"/>
     </row>
-    <row r="903" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -25185,7 +25144,7 @@
       <c r="X903" s="1"/>
       <c r="Y903" s="1"/>
     </row>
-    <row r="904" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -25212,7 +25171,7 @@
       <c r="X904" s="1"/>
       <c r="Y904" s="1"/>
     </row>
-    <row r="905" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -25239,7 +25198,7 @@
       <c r="X905" s="1"/>
       <c r="Y905" s="1"/>
     </row>
-    <row r="906" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -25266,7 +25225,7 @@
       <c r="X906" s="1"/>
       <c r="Y906" s="1"/>
     </row>
-    <row r="907" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -25293,7 +25252,7 @@
       <c r="X907" s="1"/>
       <c r="Y907" s="1"/>
     </row>
-    <row r="908" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -25320,7 +25279,7 @@
       <c r="X908" s="1"/>
       <c r="Y908" s="1"/>
     </row>
-    <row r="909" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -25347,7 +25306,7 @@
       <c r="X909" s="1"/>
       <c r="Y909" s="1"/>
     </row>
-    <row r="910" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -25374,7 +25333,7 @@
       <c r="X910" s="1"/>
       <c r="Y910" s="1"/>
     </row>
-    <row r="911" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -25401,7 +25360,7 @@
       <c r="X911" s="1"/>
       <c r="Y911" s="1"/>
     </row>
-    <row r="912" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -25428,7 +25387,7 @@
       <c r="X912" s="1"/>
       <c r="Y912" s="1"/>
     </row>
-    <row r="913" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -25455,7 +25414,7 @@
       <c r="X913" s="1"/>
       <c r="Y913" s="1"/>
     </row>
-    <row r="914" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -25482,7 +25441,7 @@
       <c r="X914" s="1"/>
       <c r="Y914" s="1"/>
     </row>
-    <row r="915" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -25509,7 +25468,7 @@
       <c r="X915" s="1"/>
       <c r="Y915" s="1"/>
     </row>
-    <row r="916" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -25536,7 +25495,7 @@
       <c r="X916" s="1"/>
       <c r="Y916" s="1"/>
     </row>
-    <row r="917" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -25563,7 +25522,7 @@
       <c r="X917" s="1"/>
       <c r="Y917" s="1"/>
     </row>
-    <row r="918" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -25590,7 +25549,7 @@
       <c r="X918" s="1"/>
       <c r="Y918" s="1"/>
     </row>
-    <row r="919" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -25617,7 +25576,7 @@
       <c r="X919" s="1"/>
       <c r="Y919" s="1"/>
     </row>
-    <row r="920" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -25644,7 +25603,7 @@
       <c r="X920" s="1"/>
       <c r="Y920" s="1"/>
     </row>
-    <row r="921" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -25671,7 +25630,7 @@
       <c r="X921" s="1"/>
       <c r="Y921" s="1"/>
     </row>
-    <row r="922" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -25698,7 +25657,7 @@
       <c r="X922" s="1"/>
       <c r="Y922" s="1"/>
     </row>
-    <row r="923" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -25725,7 +25684,7 @@
       <c r="X923" s="1"/>
       <c r="Y923" s="1"/>
     </row>
-    <row r="924" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -25752,7 +25711,7 @@
       <c r="X924" s="1"/>
       <c r="Y924" s="1"/>
     </row>
-    <row r="925" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -25779,7 +25738,7 @@
       <c r="X925" s="1"/>
       <c r="Y925" s="1"/>
     </row>
-    <row r="926" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -25806,7 +25765,7 @@
       <c r="X926" s="1"/>
       <c r="Y926" s="1"/>
     </row>
-    <row r="927" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -25833,7 +25792,7 @@
       <c r="X927" s="1"/>
       <c r="Y927" s="1"/>
     </row>
-    <row r="928" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -25860,7 +25819,7 @@
       <c r="X928" s="1"/>
       <c r="Y928" s="1"/>
     </row>
-    <row r="929" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -25887,7 +25846,7 @@
       <c r="X929" s="1"/>
       <c r="Y929" s="1"/>
     </row>
-    <row r="930" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -25914,7 +25873,7 @@
       <c r="X930" s="1"/>
       <c r="Y930" s="1"/>
     </row>
-    <row r="931" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -25941,7 +25900,7 @@
       <c r="X931" s="1"/>
       <c r="Y931" s="1"/>
     </row>
-    <row r="932" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -25968,7 +25927,7 @@
       <c r="X932" s="1"/>
       <c r="Y932" s="1"/>
     </row>
-    <row r="933" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -25995,7 +25954,7 @@
       <c r="X933" s="1"/>
       <c r="Y933" s="1"/>
     </row>
-    <row r="934" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -26022,7 +25981,7 @@
       <c r="X934" s="1"/>
       <c r="Y934" s="1"/>
     </row>
-    <row r="935" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -26049,7 +26008,7 @@
       <c r="X935" s="1"/>
       <c r="Y935" s="1"/>
     </row>
-    <row r="936" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -26076,7 +26035,7 @@
       <c r="X936" s="1"/>
       <c r="Y936" s="1"/>
     </row>
-    <row r="937" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -26103,7 +26062,7 @@
       <c r="X937" s="1"/>
       <c r="Y937" s="1"/>
     </row>
-    <row r="938" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -26130,7 +26089,7 @@
       <c r="X938" s="1"/>
       <c r="Y938" s="1"/>
     </row>
-    <row r="939" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -26157,7 +26116,7 @@
       <c r="X939" s="1"/>
       <c r="Y939" s="1"/>
     </row>
-    <row r="940" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -26184,7 +26143,7 @@
       <c r="X940" s="1"/>
       <c r="Y940" s="1"/>
     </row>
-    <row r="941" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -26211,7 +26170,7 @@
       <c r="X941" s="1"/>
       <c r="Y941" s="1"/>
     </row>
-    <row r="942" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -26238,7 +26197,7 @@
       <c r="X942" s="1"/>
       <c r="Y942" s="1"/>
     </row>
-    <row r="943" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -26265,7 +26224,7 @@
       <c r="X943" s="1"/>
       <c r="Y943" s="1"/>
     </row>
-    <row r="944" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -26292,7 +26251,7 @@
       <c r="X944" s="1"/>
       <c r="Y944" s="1"/>
     </row>
-    <row r="945" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -26319,7 +26278,7 @@
       <c r="X945" s="1"/>
       <c r="Y945" s="1"/>
     </row>
-    <row r="946" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -26346,7 +26305,7 @@
       <c r="X946" s="1"/>
       <c r="Y946" s="1"/>
     </row>
-    <row r="947" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -26373,7 +26332,7 @@
       <c r="X947" s="1"/>
       <c r="Y947" s="1"/>
     </row>
-    <row r="948" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -26400,7 +26359,7 @@
       <c r="X948" s="1"/>
       <c r="Y948" s="1"/>
     </row>
-    <row r="949" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -26427,7 +26386,7 @@
       <c r="X949" s="1"/>
       <c r="Y949" s="1"/>
     </row>
-    <row r="950" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -26454,7 +26413,7 @@
       <c r="X950" s="1"/>
       <c r="Y950" s="1"/>
     </row>
-    <row r="951" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -26481,7 +26440,7 @@
       <c r="X951" s="1"/>
       <c r="Y951" s="1"/>
     </row>
-    <row r="952" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -26508,7 +26467,7 @@
       <c r="X952" s="1"/>
       <c r="Y952" s="1"/>
     </row>
-    <row r="953" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -26535,7 +26494,7 @@
       <c r="X953" s="1"/>
       <c r="Y953" s="1"/>
     </row>
-    <row r="954" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -26562,7 +26521,7 @@
       <c r="X954" s="1"/>
       <c r="Y954" s="1"/>
     </row>
-    <row r="955" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -26589,7 +26548,7 @@
       <c r="X955" s="1"/>
       <c r="Y955" s="1"/>
     </row>
-    <row r="956" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -26616,7 +26575,7 @@
       <c r="X956" s="1"/>
       <c r="Y956" s="1"/>
     </row>
-    <row r="957" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -26643,7 +26602,7 @@
       <c r="X957" s="1"/>
       <c r="Y957" s="1"/>
     </row>
-    <row r="958" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -26670,7 +26629,7 @@
       <c r="X958" s="1"/>
       <c r="Y958" s="1"/>
     </row>
-    <row r="959" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -26697,7 +26656,7 @@
       <c r="X959" s="1"/>
       <c r="Y959" s="1"/>
     </row>
-    <row r="960" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -26724,7 +26683,7 @@
       <c r="X960" s="1"/>
       <c r="Y960" s="1"/>
     </row>
-    <row r="961" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -26751,7 +26710,7 @@
       <c r="X961" s="1"/>
       <c r="Y961" s="1"/>
     </row>
-    <row r="962" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -26778,7 +26737,7 @@
       <c r="X962" s="1"/>
       <c r="Y962" s="1"/>
     </row>
-    <row r="963" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -26805,7 +26764,7 @@
       <c r="X963" s="1"/>
       <c r="Y963" s="1"/>
     </row>
-    <row r="964" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -26832,7 +26791,7 @@
       <c r="X964" s="1"/>
       <c r="Y964" s="1"/>
     </row>
-    <row r="965" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -26859,7 +26818,7 @@
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
     </row>
-    <row r="966" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -26886,7 +26845,7 @@
       <c r="X966" s="1"/>
       <c r="Y966" s="1"/>
     </row>
-    <row r="967" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -26913,7 +26872,7 @@
       <c r="X967" s="1"/>
       <c r="Y967" s="1"/>
     </row>
-    <row r="968" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -26940,7 +26899,7 @@
       <c r="X968" s="1"/>
       <c r="Y968" s="1"/>
     </row>
-    <row r="969" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -26967,7 +26926,7 @@
       <c r="X969" s="1"/>
       <c r="Y969" s="1"/>
     </row>
-    <row r="970" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -26994,7 +26953,7 @@
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
     </row>
-    <row r="971" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -27021,7 +26980,7 @@
       <c r="X971" s="1"/>
       <c r="Y971" s="1"/>
     </row>
-    <row r="972" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -27048,7 +27007,7 @@
       <c r="X972" s="1"/>
       <c r="Y972" s="1"/>
     </row>
-    <row r="973" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -27075,7 +27034,7 @@
       <c r="X973" s="1"/>
       <c r="Y973" s="1"/>
     </row>
-    <row r="974" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -27102,7 +27061,7 @@
       <c r="X974" s="1"/>
       <c r="Y974" s="1"/>
     </row>
-    <row r="975" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -27129,7 +27088,7 @@
       <c r="X975" s="1"/>
       <c r="Y975" s="1"/>
     </row>
-    <row r="976" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -27156,7 +27115,7 @@
       <c r="X976" s="1"/>
       <c r="Y976" s="1"/>
     </row>
-    <row r="977" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -27183,7 +27142,7 @@
       <c r="X977" s="1"/>
       <c r="Y977" s="1"/>
     </row>
-    <row r="978" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -27210,7 +27169,7 @@
       <c r="X978" s="1"/>
       <c r="Y978" s="1"/>
     </row>
-    <row r="979" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -27237,7 +27196,7 @@
       <c r="X979" s="1"/>
       <c r="Y979" s="1"/>
     </row>
-    <row r="980" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
